--- a/html/resources/ioaConditions/train1P2Block1Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1Test.xlsx
@@ -34,25 +34,25 @@
     <t>falsePos</t>
   </si>
   <si>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
     <t>trainingaudio/15_kopota1.wav</t>
   </si>
   <si>
-    <t>trainingaudio/24_takopa2.wav</t>
+    <t>pngimages/09_plane.png</t>
   </si>
   <si>
     <t>pngimages/15_barrel.png</t>
   </si>
   <si>
-    <t>pngimages/24_banana.png</t>
-  </si>
-  <si>
     <t>train1P2</t>
   </si>
   <si>
-    <t>pngimages/27_kiwi.png</t>
-  </si>
-  <si>
-    <t>pngimages/04_ladder.png</t>
+    <t>pngimages/19_burger.png</t>
+  </si>
+  <si>
+    <t>pngimages/14_coffee.png</t>
   </si>
 </sst>
 </file>
@@ -470,10 +470,10 @@
         <v>12</v>
       </c>
       <c r="E3">
+        <v>-0.5</v>
+      </c>
+      <c r="F3">
         <v>0.5</v>
-      </c>
-      <c r="F3">
-        <v>-0.5</v>
       </c>
     </row>
   </sheetData>

--- a/html/resources/ioaConditions/train1P2Block1Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata1.wav</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.wav</t>
+    <t>trainingaudio/09_tipata1.mp3</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.mp3</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>

--- a/html/resources/ioaConditions/train1P2Block1Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata1.mp3</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.mp3</t>
+    <t>trainingaudio/09_tipata1.ogg</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.ogg</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>

--- a/html/resources/ioaConditions/train1P2Block1Test.xlsx
+++ b/html/resources/ioaConditions/train1P2Block1Test.xlsx
@@ -34,10 +34,10 @@
     <t>falsePos</t>
   </si>
   <si>
-    <t>trainingaudio/09_tipata1.ogg</t>
-  </si>
-  <si>
-    <t>trainingaudio/15_kopota1.ogg</t>
+    <t>trainingaudio/09_tipata1.wav</t>
+  </si>
+  <si>
+    <t>trainingaudio/15_kopota1.wav</t>
   </si>
   <si>
     <t>pngimages/09_plane.png</t>
